--- a/biology/Microbiologie/Sphingobacterium_psychroaquaticum/Sphingobacterium_psychroaquaticum.xlsx
+++ b/biology/Microbiologie/Sphingobacterium_psychroaquaticum/Sphingobacterium_psychroaquaticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphingobacterium psychroaquaticum est une bactérie à Gram négatif psychrophile découverte en 2013 dans le lac Michigan dans le Wisconsin aux États-Unis. Elle appartient au genre Sphingobacterium du phylum des Bacteroidota et la souche-type est dénommée MOL-1 (DSM 22418).
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche MOL-1, souche-type de cette espèce Sphingobacterium psychroaquaticum a été isolée aux États-Unis, dans le lac Michigan[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche MOL-1, souche-type de cette espèce Sphingobacterium psychroaquaticum a été isolée aux États-Unis, dans le lac Michigan,.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le nom de genre Sphingobacterium provient du néolatin sphingosinum (issu du grec sphingos, "de sphinx" et du suffixe -ine), qui se rapporte à la sphingosine, et du latin bacterium, "bâtonnet", qui désigne par extension une bactérie ; ainsi le nom complet désigne une bactérie contenant de la sphingosine[3]. Le nom d'espèce psychroaquaticum provient de l'adjectif grec psychros, "froid", et de l'adjectif latin aquaticus, -a, -um, "vivant ou grandissant dans ou près de l'eau" ; ainsi le nom complet désigne une bactérie aquatique et psychrophile[3]. 
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Sphingobacterium provient du néolatin sphingosinum (issu du grec sphingos, "de sphinx" et du suffixe -ine), qui se rapporte à la sphingosine, et du latin bacterium, "bâtonnet", qui désigne par extension une bactérie ; ainsi le nom complet désigne une bactérie contenant de la sphingosine. Le nom d'espèce psychroaquaticum provient de l'adjectif grec psychros, "froid", et de l'adjectif latin aquaticus, -a, -um, "vivant ou grandissant dans ou près de l'eau" ; ainsi le nom complet désigne une bactérie aquatique et psychrophile. 
 </t>
         </is>
       </c>
@@ -574,7 +593,9 @@
           <t>Morphologie et physiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules de Sphingobacterium psychroaquaticum ont une forme de bâtonnet court de proportions d'environ 2-3 
         ×
@@ -609,10 +630,12 @@
           <t>Génome</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clade phylogénétique le plus proche de Sphingobacterium psychroaquaticum est celui de l'espèce Sphingobacterium shayense[2]. La bactérie possède un total de 4 506 110 paires de bases[4] ainsi que 3 849 gènes[5].
-Le taux de GC de cette bactérie est d'environ 40%[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade phylogénétique le plus proche de Sphingobacterium psychroaquaticum est celui de l'espèce Sphingobacterium shayense. La bactérie possède un total de 4 506 110 paires de bases ainsi que 3 849 gènes.
+Le taux de GC de cette bactérie est d'environ 40%.
 </t>
         </is>
       </c>
